--- a/Project Description/HermanMillerStats.xlsx
+++ b/Project Description/HermanMillerStats.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22724"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.159.62.2\信息技术部\CH\nl-NL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE79156B-7239-4AFE-833A-B5DA05E355B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24585" windowHeight="12825"/>
   </bookViews>
   <sheets>
     <sheet name="HermanMiller" sheetId="1" r:id="rId1"/>
@@ -18,30 +12,20 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">HermanMiller!$A:$E</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">HermanMiller!$15:$15</definedName>
-    <definedName name="Bedrijfsnaam">HermanMiller!$H$8</definedName>
-    <definedName name="BillName">HermanMiller!$I$11</definedName>
+    <definedName name="Bedrijfsnaam">HermanMiller!$I$8</definedName>
+    <definedName name="BillName">HermanMiller!$J$11</definedName>
     <definedName name="ColumnTitle1">#REF!</definedName>
     <definedName name="ColumnTitleRegion1..G6.1">HermanMiller!$C$11</definedName>
     <definedName name="CustomerLookup">#REF!</definedName>
     <definedName name="InvoiceSubtotal">HermanMiller!$D$22</definedName>
     <definedName name="RowTitleRegion1..H3">HermanMiller!$C$7</definedName>
-    <definedName name="RowTitleRegion2..C8">HermanMiller!$H$11</definedName>
+    <definedName name="RowTitleRegion2..C8">HermanMiller!$I$11</definedName>
     <definedName name="RowTitleRegion3..E8">HermanMiller!#REF!</definedName>
     <definedName name="RowTitleRegion4..H18">HermanMiller!$C$22</definedName>
     <definedName name="Storting">HermanMiller!$D$23</definedName>
     <definedName name="Title2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -201,97 +185,171 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="00000"/>
-    <numFmt numFmtId="167" formatCode="0#########"/>
-    <numFmt numFmtId="168" formatCode="&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0#########"/>
+    <numFmt numFmtId="177" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="178" formatCode="00000"/>
+    <numFmt numFmtId="179" formatCode="&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Segoe UI"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Segoe UI"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color theme="0"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="2"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3" tint="0.599963377788629"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-      <scheme val="major"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Segoe UI"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3" tint="0.59996337778862885"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-      <scheme val="major"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,7 +358,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,17 +388,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.24994659260841701"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249946592608417"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -331,11 +564,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="2"/>
-      </left>
-      <right/>
-      <top/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -349,162 +582,360 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color theme="2"/>
-      </top>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" applyFont="0" applyFill="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="25" applyBorder="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="2" xfId="33" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyBorder="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="18" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="27">
-    <cellStyle name="Accent1" xfId="12" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Beschrijving van factuur" xfId="21" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Boven uitlijnen" xfId="23" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Datum" xfId="15" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Factuurnummer en contactgegevens" xfId="22" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Komma" xfId="7" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Komma [0]" xfId="8" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Kop 3" xfId="16" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Kop 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Links uitlijnen" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="navigatiecellen" xfId="26" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Onderste rand" xfId="24" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Postcode" xfId="19" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Procent" xfId="11" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Rechts inspringen" xfId="25" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Rechts uitlijnen" xfId="14" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Telefoon" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Titel" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Totaal" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Valuta" xfId="9" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Valuta [0]" xfId="10" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Verklarende tekst" xfId="17" builtinId="53" customBuiltin="1"/>
+  <cellStyles count="60">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Onderste rand" xfId="4"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Currency" xfId="6" builtinId="4"/>
+    <cellStyle name="Beschrijving van factuur" xfId="7"/>
+    <cellStyle name="Percent" xfId="8" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="9" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="10" builtinId="17"/>
+    <cellStyle name="Note" xfId="11" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8"/>
+    <cellStyle name="Rechts inspringen" xfId="13"/>
+    <cellStyle name="60% - Accent4" xfId="14" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="16" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="17" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="18" builtinId="35"/>
+    <cellStyle name="Title" xfId="19" builtinId="15"/>
+    <cellStyle name="Links uitlijnen" xfId="20"/>
+    <cellStyle name="Datum" xfId="21"/>
+    <cellStyle name="CExplanatory Text" xfId="22" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="23" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="24" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="25" builtinId="19"/>
+    <cellStyle name="Input" xfId="26" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="27" builtinId="40"/>
+    <cellStyle name="Good" xfId="28" builtinId="26"/>
+    <cellStyle name="Output" xfId="29" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="30" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="32" builtinId="24"/>
+    <cellStyle name="Total" xfId="33" builtinId="25"/>
+    <cellStyle name="Bad" xfId="34" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="35" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="36" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="37" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="38" builtinId="32"/>
+    <cellStyle name="Telefoon" xfId="39"/>
+    <cellStyle name="Accent2" xfId="40" builtinId="33"/>
+    <cellStyle name="Boven uitlijnen" xfId="41"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="43" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="44" builtinId="36"/>
+    <cellStyle name="Postcode" xfId="45"/>
+    <cellStyle name="Accent3" xfId="46" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="47" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="48" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="49" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="50" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="51" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="52" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="53" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="54" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="55" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="56" builtinId="52"/>
+    <cellStyle name="Factuurnummer en contactgegevens" xfId="57"/>
+    <cellStyle name="navigatiecellen" xfId="58"/>
+    <cellStyle name="Rechts uitlijnen" xfId="59"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -515,16 +946,16 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4"/>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor theme="4" tint="-0.249946592608417"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left/>
         <right/>
         <top style="thick">
@@ -550,7 +981,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Servicefactuur" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Servicefactuur" pivot="0" count="4">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="totalRow" dxfId="1"/>
@@ -561,11 +992,3123 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HermanMiller!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cash at beginning of period</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>HermanMiller!$A$2:$A$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>HermanMiller!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2015 - 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015 - 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015 - 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015 - 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016 - 1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016 - 2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016 - 3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016 - 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017 - 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017 - 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017 - 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017 - 4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018 - 1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2018 - 2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018 - 3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018 - 4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019 - 1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019 - 2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019 - 3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019 - 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>HermanMiller!$E$2:$E$24</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>HermanMiller!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>64700000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61800000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63700000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54700000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84900000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78400000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>114600000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>193000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>203900000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>101700000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>113600000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>113500000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>159200000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>177000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="788475936"/>
+        <c:axId val="929536445"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>HermanMiller!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Quarter</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>HermanMiller!$A$2:$A$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>HermanMiller!$A$2:$A$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>2015 - 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2015 - 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2015 - 3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2015 - 4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2016 - 1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2016 - 2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2016 - 3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2016 - 4</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2017 - 1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2017 - 2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2017 - 3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2017 - 4</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2018 - 1</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2018 - 2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2018 - 3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2018 - 4</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2019 - 1</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2019 - 2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2019 - 3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2019 - 4</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>HermanMiller!$A$2:$A$24</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>HermanMiller!$A$2:$A$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="788475936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE" altLang="en-US"/>
+                  <a:t>Quarter</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="929536445"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="929536445"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788475936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HermanMiller!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Employees</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>HermanMiller!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HermanMiller!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5635</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5652</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6792</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7510</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7607</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7478</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7681</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="511361215"/>
+        <c:axId val="545528377"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="511361215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545528377"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="545528377"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511361215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HermanMiller!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gross Profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>HermanMiller!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2015 - 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015 - 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015 - 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015 - 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016 - 1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016 - 2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016 - 3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016 - 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017 - 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017 - 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017 - 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017 - 4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018 - 1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2018 - 2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018 - 3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018 - 4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019 - 1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019 - 2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019 - 3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019 - 4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020 - 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HermanMiller!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>190500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>209600000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>216800000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>224400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>207800000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225200000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>230000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>218000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>195500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>220800000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>216900000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>222100000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>205800000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>228300000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>225100000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>235600000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>221000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>248200000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>246100000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>255500000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>243300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="841327396"/>
+        <c:axId val="288151223"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="841327396"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE" altLang="en-US"/>
+                  <a:t>Quarter</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288151223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="288151223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="841327396"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>273050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10414000" y="777875"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>311150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9804400" y="3863975"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6784975" y="6038850"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -789,20 +4332,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet2">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
-    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+    <pageSetUpPr fitToPage="1" autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -812,707 +4354,591 @@
     <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="8" customWidth="1"/>
-    <col min="7" max="7" width="7.125" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="7.125" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="1" ht="46.5" customHeight="1" spans="1:10">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1"/>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="1">
         <v>18200000</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="1">
         <v>190500000</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="1">
         <v>64700000</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2">
         <v>2010</v>
       </c>
-      <c r="H2" s="8">
+      <c r="I2">
         <v>5635</v>
       </c>
-      <c r="I2" s="9">
+      <c r="J2" s="1">
         <v>1319000000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="8" t="s">
+    <row r="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="1">
         <v>18600000</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="1">
         <v>209600000</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="1">
         <v>61800000</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3">
         <v>2011</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3">
         <v>5805</v>
       </c>
-      <c r="I3" s="9">
+      <c r="J3" s="1">
         <v>1649000000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="8" t="s">
+    <row r="4" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="1">
         <v>18600000</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="1">
         <v>216800000</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="1">
         <v>63700000</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4">
         <v>2012</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4">
         <v>5652</v>
       </c>
-      <c r="I4" s="9">
+      <c r="J4" s="1">
         <v>1724000000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="8" t="s">
+    <row r="5" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="1">
         <v>19200000</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="1">
         <v>224400000</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="1">
         <v>52000000</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5">
         <v>2013</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5">
         <v>5865</v>
       </c>
-      <c r="I5" s="9">
+      <c r="J5" s="1">
         <v>1775000000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="8" t="s">
+    <row r="6" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="1">
         <v>19900000</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="1">
         <v>207800000</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="1">
         <v>54700000</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6">
         <v>2014</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6">
         <v>6792</v>
       </c>
-      <c r="I6" s="9">
+      <c r="J6" s="1">
         <v>1882000000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A7" s="8" t="s">
+    <row r="7" ht="25.5" customHeight="1" spans="1:10">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="1">
         <v>19400000</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="1">
         <v>225200000</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="1">
         <v>55300000</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7">
         <v>2015</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7">
         <v>7510</v>
       </c>
-      <c r="I7" s="9">
+      <c r="J7" s="1">
         <v>2142000000</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="33.75" customHeight="1">
-      <c r="A8" s="8" t="s">
+    <row r="8" ht="33.75" customHeight="1" spans="1:10">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="1">
         <v>19400000</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="1">
         <v>230000000</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="1">
         <v>84900000</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8">
         <v>2016</v>
       </c>
-      <c r="H8" s="8">
+      <c r="I8">
         <v>7607</v>
       </c>
-      <c r="I8" s="9">
+      <c r="J8" s="1">
         <v>2265000000</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1">
-      <c r="A9" s="8" t="s">
+    <row r="9" customHeight="1" spans="1:10">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="1">
         <v>18400000</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="1">
         <v>218000000</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="1">
         <v>65100000</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9">
         <v>2017</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9">
         <v>7478</v>
       </c>
-      <c r="I9" s="9">
+      <c r="J9" s="1">
         <v>2278000000</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1">
-      <c r="A10" s="8" t="s">
+    <row r="10" customHeight="1" spans="1:10">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="1">
         <v>17400000</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="1">
         <v>195500000</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="1">
         <v>71900000</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="8">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10">
         <v>2018</v>
       </c>
-      <c r="H10" s="8">
+      <c r="I10">
         <v>7681</v>
       </c>
-      <c r="I10" s="9">
+      <c r="J10" s="1">
         <v>2381000000</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1">
-      <c r="A11" s="8" t="s">
+    <row r="11" customHeight="1" spans="1:10">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="1">
         <v>17900000</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="1">
         <v>220800000</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="1">
         <v>78400000</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11">
         <v>2019</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11">
         <v>8000</v>
       </c>
-      <c r="I11" s="9">
+      <c r="J11" s="1">
         <v>2567000000</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="8" t="s">
+    <row r="12" customHeight="1" spans="1:7">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="1">
         <v>19200000</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="1">
         <v>216900000</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="1">
         <v>96200000</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1">
-      <c r="A13" s="8" t="s">
+    <row r="13" customHeight="1" spans="1:7">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="1">
         <v>18000000</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="1">
         <v>222100000</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="1">
         <v>80000000</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1">
-      <c r="A14" s="8" t="s">
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="1">
         <v>18100000</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="1">
         <v>205800000</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="1">
         <v>114600000</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1">
-      <c r="A15" s="8" t="s">
+    <row r="15" customHeight="1" spans="1:7">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="1">
         <v>18500000</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="1">
         <v>228300000</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="1">
         <v>193000000</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1">
-      <c r="A16" s="8" t="s">
+    <row r="16" customHeight="1" spans="1:10">
+      <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="1">
         <v>18500000</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="1">
         <v>225100000</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="1">
         <v>203900000</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1">
-      <c r="A17" s="8" t="s">
+    <row r="17" customHeight="1" spans="1:10">
+      <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="1">
         <v>19000000</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="1">
         <v>235600000</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="1">
         <v>101700000</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1">
-      <c r="A18" s="8" t="s">
+    <row r="18" customHeight="1" spans="1:10">
+      <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="1">
         <v>19200000</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="1">
         <v>221000000</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="1">
         <v>113600000</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1">
-      <c r="A19" s="8" t="s">
+    <row r="19" customHeight="1" spans="1:10">
+      <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="1">
         <v>20300000</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="1">
         <v>248200000</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="1">
         <v>113500000</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="8" t="s">
+    <row r="20" customHeight="1" spans="1:10">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="1">
         <v>19200000</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="1">
         <v>246100000</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="1">
         <v>159200000</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1">
-      <c r="A21" s="8" t="s">
+    <row r="21" customHeight="1" spans="1:7">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="1">
         <v>19400000</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="1">
         <v>255500000</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="1">
         <v>177000000</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1">
-      <c r="A22" s="8" t="s">
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="1">
         <v>243300000</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="3"/>
+    <row r="23" customHeight="1" spans="3:4">
+      <c r="C23" s="4"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="1:12" ht="30" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="1:12" ht="30" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="1:12" ht="30" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
+    <row r="24" customHeight="1" spans="3:4">
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1" sort="0"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations xWindow="872" yWindow="452" count="35">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Selecteer de naam van de klant in de lijst. Selecteer Annuleren en druk vervolgens op Alt+pijl-omlaag om de vervolgkeuzelijst te openen. Druk vervolgens op Enter om een selectie te maken" prompt="Selecteer in deze cel de naam van de klant. Druk op Alt+pijl-omlaag om de vervolgkeuzelijst te openen en vervolgens op Enter om een selectie te maken. Voeg meer klanten toe aan het werkblad Klanten om de keuzelijst uit te breiden" sqref="I11" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <sheetProtection selectLockedCells="1" formatCells="0" formatColumns="0" formatRows="0" sort="0"/>
+  <dataValidations count="35">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze cel het e-mailadres van het facturerende bedrijf in" sqref="A9;A13;A17;A21"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in de cel rechts het factuurnummer in" sqref="C7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze cel het factuurnummer in" sqref="D7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Maak in deze werkmap een servicefactuur. Voer op dit werkblad de bedrijfs- en factuurgegevens, en op het werkblad Klanten de klantgegevens in. Selecteer cel J1 om naar het werkblad Klanten te navigeren" sqref="H7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Deze cel bevat de titel van dit werkblad. Voer de bedrijfsnaam in de onderstaande cel in. Voer in de cellen H1, H2 en H3 het factuurnummer, de factuurdatum en de vervaldatum in" sqref="I7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Het adres van de klant wordt automatisch bijgewerkt in deze cel" sqref="J12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in de cel rechts de vervaldatum in" sqref="C9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze kolom onder deze kop de korting in" sqref="C15"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze cel de factuurdatum in" sqref="D8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer de factuurdatum in de cel rechts in" sqref="C8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze cel de naam van het facturerende bedrijf in,  in cel B3 tot en met E4 de gegevens van dit bedrijf, en in de tabel de factureringsgegevens, beginnend in cel B9" sqref="I8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Totaal wordt automatisch berekend in deze kolom onder deze koptekst" sqref="D15"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze cel de vervaldatum in" sqref="D9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze cel het stortingsbedrag in" sqref="D23"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze cel het adres van het facturerende bedrijf in" sqref="I9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in de cel rechts het telefoonnummer van het facturerende bedrijf in" sqref="J9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze cel de plaatsnaam en postcode in" sqref="I10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in de cel rechts het faxnummer van het facturerende bedrijf in" sqref="J10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer een beschrijving in de cel hieronder in voor Factuur" sqref="C11:D11"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="De gegevens bij Factureren aan in rij 5 t/m 8 worden automatisch bijgewerkt op basis van de gemaakte selectie in de cel rechts. Voer een beschrijving in cel B6 in voor Factuur" sqref="I11"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Selecteer de naam van de klant in de lijst. Selecteer Annuleren en druk vervolgens op Alt+pijl-omlaag om de vervolgkeuzelijst te openen. Druk vervolgens op Enter om een selectie te maken" prompt="Selecteer in deze cel de naam van de klant. Druk op Alt+pijl-omlaag om de vervolgkeuzelijst te openen en vervolgens op Enter om een selectie te maken. Voeg meer klanten toe aan het werkblad Klanten om de keuzelijst uit te breiden" sqref="J11" errorStyle="warning">
       <formula1>CustomerLookup</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Maak in deze werkmap een servicefactuur. Voer op dit werkblad de bedrijfs- en factuurgegevens, en op het werkblad Klanten de klantgegevens in. Selecteer cel J1 om naar het werkblad Klanten te navigeren" sqref="G7" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Deze cel bevat de titel van dit werkblad. Voer de bedrijfsnaam in de onderstaande cel in. Voer in de cellen H1, H2 en H3 het factuurnummer, de factuurdatum en de vervaldatum in" sqref="H7" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze cel de naam van het facturerende bedrijf in,  in cel B3 tot en met E4 de gegevens van dit bedrijf, en in de tabel de factureringsgegevens, beginnend in cel B9" sqref="H8" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze cel het adres van het facturerende bedrijf in" sqref="H9" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze cel de plaatsnaam en postcode in" sqref="H10" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze cel het e-mailadres van het facturerende bedrijf in" sqref="A9 A13 A17 A21" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="De gegevens bij Factureren aan in rij 5 t/m 8 worden automatisch bijgewerkt op basis van de gemaakte selectie in de cel rechts. Voer een beschrijving in cel B6 in voor Factuur" sqref="H11" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Het adres van de klant wordt automatisch bijgewerkt in de cellen C6 tot en met C8" sqref="H12:H14" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Het adres van de klant wordt automatisch bijgewerkt in deze cel" sqref="I12" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="De tweede regel van het adres van de klant wordt automatisch bijgewerkt in deze cel" sqref="I13" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="De plaats, staat/provincie en postcode van de klant worden automatisch bijgewerkt in deze cel" sqref="I14" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in de cel rechts het factuurnummer in" sqref="C7" xr:uid="{00000000-0002-0000-0000-000017000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze cel het factuurnummer in" sqref="D7" xr:uid="{00000000-0002-0000-0000-000018000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer de factuurdatum in de cel rechts in" sqref="C8" xr:uid="{00000000-0002-0000-0000-000019000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze cel de factuurdatum in" sqref="D8" xr:uid="{00000000-0002-0000-0000-00001A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in de cel rechts de vervaldatum in" sqref="C9" xr:uid="{00000000-0002-0000-0000-00001B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze cel de vervaldatum in" sqref="D9" xr:uid="{00000000-0002-0000-0000-00001C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer een beschrijving in de cel hieronder in voor Factuur" sqref="C11:D11" xr:uid="{00000000-0002-0000-0000-00001D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer een beschrijving in deze cel in voor Factuur" sqref="C12:D14" xr:uid="{00000000-0002-0000-0000-00001E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze kolom onder deze koptekst de datum in" sqref="H15" xr:uid="{00000000-0002-0000-0000-00001F000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze kolom onder deze koptekst een beschrijving in" sqref="I15" xr:uid="{00000000-0002-0000-0000-000020000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze kolom onder deze koptekst het vaste tarief in" sqref="B15" xr:uid="{00000000-0002-0000-0000-000023000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze kolom onder deze kop de korting in" sqref="C15" xr:uid="{00000000-0002-0000-0000-000024000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Totaal wordt automatisch berekend in deze kolom onder deze koptekst" sqref="D15" xr:uid="{00000000-0002-0000-0000-000025000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Het subtotaal van de factuur wordt automatisch berekend in de cel rechts" sqref="C22" xr:uid="{00000000-0002-0000-0000-000026000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Het subtotaal van de factuur wordt automatisch berekend in deze cel" sqref="D22" xr:uid="{00000000-0002-0000-0000-000027000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in de cel rechts het stortingsbedrag in" sqref="C23" xr:uid="{00000000-0002-0000-0000-000028000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze cel het stortingsbedrag in" sqref="D23" xr:uid="{00000000-0002-0000-0000-000029000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Het totaal verschuldigde bedrag wordt automatisch berekend in de cel rechts" sqref="C24" xr:uid="{00000000-0002-0000-0000-00002A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Het totaal verschuldigde bedrag wordt automatisch berekend in deze cel" sqref="D24" xr:uid="{00000000-0002-0000-0000-00002B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in de cel rechts het telefoonnummer van het facturerende bedrijf in" sqref="I9" xr:uid="{00000000-0002-0000-0000-00002E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in de cel rechts het faxnummer van het facturerende bedrijf in" sqref="I10" xr:uid="{00000000-0002-0000-0000-00002F000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer het aantal dagen in waarna het totaal verschuldigd is. Vervang de eerste &lt;#&gt; in deze cel en voer het percentage achterstallige servicekosten in de tweede &lt;#&gt; in" sqref="A24:B24 H24:I24" xr:uid="{00000000-0002-0000-0000-00002C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="De naam van het bedrijf wordt automatisch toegevoegd in deze cel" sqref="A23:B23 H23:I23" xr:uid="{00000000-0002-0000-0000-00002D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer het aantal dagen in waarna het totaal verschuldigd is. Vervang de eerste &lt;#&gt; in deze cel en voer het percentage achterstallige servicekosten in de tweede &lt;#&gt; in" sqref="A24:B24;I24:J24"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="De tweede regel van het adres van de klant wordt automatisch bijgewerkt in deze cel" sqref="J13"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="De plaats, staat/provincie en postcode van de klant worden automatisch bijgewerkt in deze cel" sqref="J14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze kolom onder deze koptekst de datum in" sqref="I15"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze kolom onder deze koptekst het vaste tarief in" sqref="B15"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze kolom onder deze koptekst een beschrijving in" sqref="J15"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Het subtotaal van de factuur wordt automatisch berekend in de cel rechts" sqref="C22"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Het subtotaal van de factuur wordt automatisch berekend in deze cel" sqref="D22"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="De naam van het bedrijf wordt automatisch toegevoegd in deze cel" sqref="A23:B23;I23:J23"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in de cel rechts het stortingsbedrag in" sqref="C23"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Het totaal verschuldigde bedrag wordt automatisch berekend in de cel rechts" sqref="C24"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Het totaal verschuldigde bedrag wordt automatisch berekend in deze cel" sqref="D24"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Het adres van de klant wordt automatisch bijgewerkt in de cellen C6 tot en met C8" sqref="I12:I14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer een beschrijving in deze cel in voor Factuur" sqref="C12:D14"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
   <headerFooter differentFirst="1">
-    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>